--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1140299.571775934</v>
+        <v>1137818.651950475</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
         <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>12.75318105743378</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579943</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104932</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>178.7915224726182</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689271</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>68.85017973406302</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292084</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>3.674408484155464</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
         <v>259.6028517494645</v>
@@ -1594,7 +1594,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.352745183881</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>312.8565519201804</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663269</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579946</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104935</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830084</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302865</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>260.8051217998956</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.26250868599232</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
@@ -1774,16 +1774,16 @@
         <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719017</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271161</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292084</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>194.6265174025048</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
         <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>72.31625413219157</v>
+        <v>72.31625413219058</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>155.7512320878722</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085013</v>
+        <v>134.9383736358132</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411907</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2087,7 +2087,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>195.6954497347412</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359924</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>119.3934559514736</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D22" t="n">
-        <v>137.1198840074573</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411906</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206859</v>
       </c>
       <c r="T22" t="n">
         <v>145.6536660704502</v>
@@ -2384,7 +2384,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330919</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432829</v>
+        <v>77.43656365929147</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7162491948574</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958291</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958324</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,16 +3086,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052283</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482624</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>110.5480262953173</v>
       </c>
       <c r="H37" t="n">
-        <v>89.27723295061007</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333689</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
@@ -3487,10 +3487,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>134.4390655945508</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2069382643943</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333689</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007094</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F43" t="n">
-        <v>91.2755658774861</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621589</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.084305103337</v>
+        <v>134.2912433677308</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010746</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846428</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482635</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333699</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>230.734056241902</v>
+        <v>230.7340562419018</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1766.942584960618</v>
+        <v>1498.714766761814</v>
       </c>
       <c r="C11" t="n">
-        <v>1425.17213527993</v>
+        <v>1156.944317081126</v>
       </c>
       <c r="D11" t="n">
-        <v>1094.098503932904</v>
+        <v>825.870685734099</v>
       </c>
       <c r="E11" t="n">
-        <v>735.5023185943838</v>
+        <v>467.2745003955784</v>
       </c>
       <c r="F11" t="n">
-        <v>351.7084810645</v>
+        <v>454.3924993274632</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299093</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5069,22 +5069,22 @@
         <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.507220395989</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.16881092955</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2835.571313482461</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2835.571313482461</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.297622481105</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2126.350357765016</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3126375609374</v>
+        <v>641.7333207357658</v>
       </c>
       <c r="C13" t="n">
-        <v>276.5685218927541</v>
+        <v>499.9892050675826</v>
       </c>
       <c r="D13" t="n">
-        <v>207.0228857977407</v>
+        <v>377.0646329149705</v>
       </c>
       <c r="E13" t="n">
-        <v>207.0228857977407</v>
+        <v>256.3436065923011</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0228857977407</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402573</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.942556361062</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188182</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
         <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784765</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>2136.790585337165</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991586</v>
+        <v>1942.216037166415</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1680.305237551782</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.39213343079</v>
+        <v>1452.812816605619</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535533</v>
+        <v>1190.587713828382</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152597</v>
+        <v>989.7902301900883</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314534</v>
+        <v>796.1897183062819</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1485.580684958773</v>
+        <v>1465.153151170352</v>
       </c>
       <c r="C14" t="n">
-        <v>1143.810235278085</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="D14" t="n">
-        <v>827.7935161667913</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="E14" t="n">
-        <v>469.1973308282707</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F14" t="n">
-        <v>469.1973308282707</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299097</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299097</v>
+        <v>81.3169479329909</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573496</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489649</v>
+        <v>2759.850719956088</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479259</v>
+        <v>2434.274131945697</v>
       </c>
       <c r="X14" t="n">
-        <v>2207.935722479259</v>
+        <v>2088.000440944341</v>
       </c>
       <c r="Y14" t="n">
-        <v>1844.988457763171</v>
+        <v>1824.56092397475</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237417</v>
+        <v>711.437719463624</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555585</v>
+        <v>569.6936037954408</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029466</v>
+        <v>446.7690316428288</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802771</v>
+        <v>326.0480053201593</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420905</v>
+        <v>326.0480053201593</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765328</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>2077.863719075786</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>2077.863719075786</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1815.952919461153</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1588.46049851499</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="W16" t="n">
-        <v>1326.235395737753</v>
+        <v>1260.29211255624</v>
       </c>
       <c r="X16" t="n">
-        <v>1125.437912099459</v>
+        <v>1059.494628917947</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.8374002156531</v>
+        <v>865.8941170341401</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1855.320338666653</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446361</v>
+        <v>966.2289711446371</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628256</v>
+        <v>629.8847665628265</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5528,10 +5528,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5552,13 +5552,13 @@
         <v>2854.646889689922</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344274</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290991</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522976</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,49 +5595,49 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.151773123555</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671184</v>
+        <v>537.8572904034449</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625797</v>
+        <v>462.3823511989062</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879838</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604107</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
         <v>1795.061607088441</v>
@@ -5704,7 +5704,7 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
         <v>1253.432737201115</v>
@@ -5713,10 +5713,10 @@
         <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817308</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459977</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542002</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.583240809387</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>940.9592424104339</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>743.2870709612006</v>
+        <v>966.2289711446366</v>
       </c>
       <c r="F20" t="n">
-        <v>406.94286637939</v>
+        <v>629.884766562826</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5771,31 +5771,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417715</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281941</v>
+        <v>2902.199618800309</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219624</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166342</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398327</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235555</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034456</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625797</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604106</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952115</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817312</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459982</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056952</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349361</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -5999,19 +5999,19 @@
         <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.645634821814</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.618105701151</v>
+        <v>2648.229225364688</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058329</v>
+        <v>3361.584312811634</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
         <v>3633.238772859012</v>
@@ -6063,16 +6063,16 @@
         <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130995</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6130,19 +6130,19 @@
         <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782826</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881693</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
         <v>96.06173179634004</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6169,13 +6169,13 @@
         <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1855.94143530779</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
         <v>1377.311169453177</v>
@@ -6184,7 +6184,7 @@
         <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259235</v>
+        <v>982.4929116259236</v>
       </c>
       <c r="X25" t="n">
         <v>829.1450609357032</v>
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1453.404136464983</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N26" t="n">
         <v>2533.71485819569</v>
@@ -6245,16 +6245,16 @@
         <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6266,10 +6266,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,7 +6388,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6406,28 +6406,28 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,52 +6449,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>343.9659746953258</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>677.7853483851723</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1128.819561633581</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226675</v>
+        <v>1662.351466305506</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285457</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164794</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698008</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899672</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257048</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191385</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641548</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643403</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302714</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,10 +6640,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
         <v>2127.355355052752</v>
@@ -6652,19 +6652,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6689,58 +6689,58 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910142</v>
+        <v>887.977189138478</v>
       </c>
       <c r="L32" t="n">
-        <v>1561.793016801445</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M32" t="n">
-        <v>2095.324921473369</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N32" t="n">
-        <v>2642.103738532152</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.076209411488</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913849</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415479</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643402</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302714</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572252</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297368</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389146</v>
+        <v>740.906970512758</v>
       </c>
       <c r="C37" t="n">
         <v>571.9707875848511</v>
       </c>
       <c r="D37" t="n">
-        <v>520.5255827463589</v>
+        <v>421.8541481725154</v>
       </c>
       <c r="E37" t="n">
-        <v>372.6124891639657</v>
+        <v>372.6124891639656</v>
       </c>
       <c r="F37" t="n">
-        <v>324.3939762398988</v>
+        <v>225.7225416660553</v>
       </c>
       <c r="G37" t="n">
-        <v>156.6911396146178</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
         <v>315.6219318279954</v>
@@ -7123,22 +7123,22 @@
         <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663015</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649975</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953108</v>
+        <v>823.8840007691543</v>
       </c>
     </row>
     <row r="38">
@@ -7157,28 +7157,28 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7199,19 +7199,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389146</v>
+        <v>696.9279421464339</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110077</v>
+        <v>527.991759218527</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725155</v>
+        <v>377.8751198061913</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639658</v>
+        <v>328.6334607976416</v>
       </c>
       <c r="F40" t="n">
-        <v>225.7225416660554</v>
+        <v>280.4149478735746</v>
       </c>
       <c r="G40" t="n">
-        <v>156.6911396146178</v>
+        <v>211.3835458221369</v>
       </c>
       <c r="H40" t="n">
-        <v>109.1453874063191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058689</v>
+        <v>1621.35446039006</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1430.923028089547</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1274.909974457503</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>1084.164238994386</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649975</v>
+        <v>954.8461226702124</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953108</v>
+        <v>832.7249781005256</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,13 +7409,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7439,22 +7439,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650704</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C43" t="n">
-        <v>473.2993530110068</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725144</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E43" t="n">
-        <v>372.6124891639647</v>
+        <v>329.9792181898303</v>
       </c>
       <c r="F43" t="n">
-        <v>280.4149478735746</v>
+        <v>281.7607052657633</v>
       </c>
       <c r="G43" t="n">
-        <v>211.383545822137</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126132</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663014</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X43" t="n">
-        <v>946.0051453388403</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953102</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7646,28 +7646,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7676,16 +7676,16 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
@@ -7701,70 +7701,70 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064588</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.9308303909361</v>
+        <v>698.2736995386226</v>
       </c>
       <c r="C46" t="n">
-        <v>430.6660820368725</v>
+        <v>628.0089511845591</v>
       </c>
       <c r="D46" t="n">
-        <v>379.2208771983802</v>
+        <v>477.8923117722234</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898304</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657634</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404823</v>
@@ -7807,16 +7807,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7843,13 +7843,13 @@
         <v>1322.10716072584</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.68999068888</v>
+        <v>1131.361425262723</v>
       </c>
       <c r="X46" t="n">
-        <v>804.7004397908626</v>
+        <v>1002.043308938549</v>
       </c>
       <c r="Y46" t="n">
-        <v>682.5792952211758</v>
+        <v>879.9221643688624</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430633</v>
+        <v>157.2353108430631</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729011</v>
+        <v>184.4039433729008</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389608</v>
+        <v>191.4948909389605</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333072</v>
+        <v>181.0856325333068</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830246</v>
+        <v>179.3553748830242</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383995</v>
+        <v>182.8301554383991</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586589</v>
+        <v>190.8908035586585</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266127</v>
+        <v>192.0103836266125</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372535</v>
+        <v>113.6031223372533</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672277</v>
+        <v>105.9629718672274</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253597</v>
+        <v>104.1013981253593</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677692</v>
+        <v>92.30246558677659</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359739</v>
+        <v>106.8829608359736</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798327</v>
+        <v>105.3113487798324</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615459</v>
+        <v>120.8212784615458</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564658</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085229</v>
+        <v>119.1996074085228</v>
       </c>
       <c r="N10" t="n">
-        <v>108.428412314078</v>
+        <v>108.4284123140778</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530926</v>
+        <v>120.6694600530925</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662706</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>127.4994347185292</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>18.01571720695085</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,16 +9875,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>78.40458911672766</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>402.5500016878926</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>74.68679478748601</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>400.2032972882096</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>287.0017854473908</v>
       </c>
       <c r="L32" t="n">
-        <v>187.8883066283045</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>367.2027180971512</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>122.0405894103902</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302865</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>52.84514669702286</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.0120060829209</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>159.17447026016</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>14.90634311337609</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>98.51267026903156</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6493249088185</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>64.97633434695975</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>203.0294313795024</v>
+        <v>203.0294313795034</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>112.3396371318016</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>155.9522295602204</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.765876499528531e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1002400.405394993</v>
+        <v>1002400.405394992</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>831711.4923883189</v>
+        <v>831711.4923883186</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>904826.1652725756</v>
+        <v>904826.1652725753</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>904826.1652725756</v>
+        <v>904826.1652725755</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934650.9824675407</v>
+        <v>934650.9824675408</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>934650.9824675407</v>
+        <v>934650.9824675408</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934650.9824675407</v>
+        <v>934650.9824675408</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
         <v>512061.6686287166</v>
       </c>
       <c r="E2" t="n">
-        <v>455962.5005656095</v>
+        <v>455962.5005656094</v>
       </c>
       <c r="F2" t="n">
-        <v>455962.5005656095</v>
+        <v>455962.5005656094</v>
       </c>
       <c r="G2" t="n">
+        <v>496581.7632790848</v>
+      </c>
+      <c r="H2" t="n">
         <v>496581.763279085</v>
       </c>
-      <c r="H2" t="n">
-        <v>496581.7632790849</v>
-      </c>
       <c r="I2" t="n">
+        <v>513151.1061651767</v>
+      </c>
+      <c r="J2" t="n">
+        <v>513151.1061651764</v>
+      </c>
+      <c r="K2" t="n">
+        <v>513151.1061651767</v>
+      </c>
+      <c r="L2" t="n">
+        <v>513151.1061651767</v>
+      </c>
+      <c r="M2" t="n">
+        <v>513151.1061651766</v>
+      </c>
+      <c r="N2" t="n">
+        <v>513151.1061651767</v>
+      </c>
+      <c r="O2" t="n">
         <v>513151.1061651768</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>513151.1061651767</v>
-      </c>
-      <c r="K2" t="n">
-        <v>513151.1061651768</v>
-      </c>
-      <c r="L2" t="n">
-        <v>513151.1061651765</v>
-      </c>
-      <c r="M2" t="n">
-        <v>513151.1061651767</v>
-      </c>
-      <c r="N2" t="n">
-        <v>513151.1061651768</v>
-      </c>
-      <c r="O2" t="n">
-        <v>513151.1061651767</v>
-      </c>
-      <c r="P2" t="n">
-        <v>513151.1061651768</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552226</v>
+        <v>59764.55367552277</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487387</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983369</v>
+        <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179692</v>
+        <v>25409.43302179698</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.109294874</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995428</v>
+        <v>421637.9387995426</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.2740136252</v>
+        <v>38804.27401362514</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362519</v>
+        <v>38804.27401362511</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506742</v>
+        <v>75832.43437506734</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506737</v>
+        <v>75832.43437506734</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451307</v>
+        <v>88045.16093451304</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173087</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="K4" t="n">
+        <v>84858.1594017309</v>
+      </c>
+      <c r="L4" t="n">
         <v>84858.15940173084</v>
       </c>
-      <c r="L4" t="n">
-        <v>84858.15940173085</v>
-      </c>
       <c r="M4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="O4" t="n">
-        <v>90964.01098815705</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="P4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815711</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521489</v>
@@ -26494,13 +26494,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36770.86170232858</v>
+        <v>36766.44812446047</v>
       </c>
       <c r="C6" t="n">
-        <v>36770.86170232858</v>
+        <v>36766.44812446035</v>
       </c>
       <c r="D6" t="n">
-        <v>-4489.729278214851</v>
+        <v>-4494.087028360991</v>
       </c>
       <c r="E6" t="n">
-        <v>-748650.2359764747</v>
+        <v>-748878.9903988724</v>
       </c>
       <c r="F6" t="n">
-        <v>340588.7361871579</v>
+        <v>340359.9817647595</v>
       </c>
       <c r="G6" t="n">
-        <v>302650.5764839288</v>
+        <v>302584.2991123841</v>
       </c>
       <c r="H6" t="n">
-        <v>340230.6857788025</v>
+        <v>340164.4084072583</v>
       </c>
       <c r="I6" t="n">
-        <v>316547.9490989879</v>
+        <v>316547.949098988</v>
       </c>
       <c r="J6" t="n">
-        <v>313505.5720668428</v>
+        <v>313505.5720668424</v>
       </c>
       <c r="K6" t="n">
-        <v>338915.0050886399</v>
+        <v>338915.0050886397</v>
       </c>
       <c r="L6" t="n">
-        <v>301334.8957937655</v>
+        <v>301334.8957937657</v>
       </c>
       <c r="M6" t="n">
-        <v>137500.3978780455</v>
+        <v>137500.3978780453</v>
       </c>
       <c r="N6" t="n">
-        <v>339668.4978707699</v>
+        <v>339668.4978707698</v>
       </c>
       <c r="O6" t="n">
         <v>339668.4978707699</v>
       </c>
       <c r="P6" t="n">
-        <v>339668.4978707698</v>
+        <v>339668.4978707697</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379058</v>
+        <v>69.78465283790639</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810299</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951245</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379058</v>
+        <v>69.78465283790639</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755392</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873727</v>
+        <v>85.82047987873693</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758451</v>
+        <v>97.11452592758474</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780176</v>
+        <v>132.2465643780175</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672112</v>
+        <v>84.22861846672106</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987526</v>
+        <v>90.83829126987519</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519092</v>
+        <v>84.46220888519085</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990463</v>
+        <v>7.649035050990337</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317061</v>
+        <v>75.62456067317052</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712643</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C19" t="n">
-        <v>11.49558901075559</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075602</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D22" t="n">
-        <v>11.49558901075508</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075599</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075586</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U25" t="n">
-        <v>11.49558901075551</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859335</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>55.47778196371094</v>
       </c>
       <c r="H37" t="n">
-        <v>55.47778196371071</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>45.39291458738651</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I40" t="n">
-        <v>54.14548214544379</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F43" t="n">
-        <v>54.14548214544514</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30855,22 +30855,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>55.47778196371084</v>
+        <v>55.47778196371107</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413296</v>
+        <v>0.280541317941332</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366643</v>
+        <v>2.873093772366667</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993312</v>
+        <v>10.81556915993321</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362295</v>
+        <v>23.81059368362315</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207944</v>
+        <v>35.68590767207974</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102641</v>
+        <v>44.27152403102679</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396553</v>
+        <v>49.26060069396596</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356634</v>
+        <v>50.05768871356677</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328724</v>
+        <v>47.26805598328765</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661065</v>
+        <v>40.342192196611</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783678</v>
+        <v>30.29530624783704</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313206</v>
+        <v>17.62255356313221</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588055</v>
+        <v>6.39283528258811</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288171</v>
+        <v>1.228069619288181</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530636</v>
+        <v>0.02244330543530656</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796464</v>
+        <v>0.1501028381796477</v>
       </c>
       <c r="H9" t="n">
-        <v>1.44967741084027</v>
+        <v>1.449677410840282</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693968</v>
+        <v>5.168014384694012</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906914</v>
+        <v>14.18142647906926</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710545</v>
+        <v>24.23831663710566</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264648</v>
+        <v>32.59140791264676</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665865</v>
+        <v>38.03263579665898</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655638</v>
+        <v>39.03924649655671</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847053</v>
+        <v>35.71328360847083</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449757</v>
+        <v>28.66305863449782</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447557</v>
+        <v>19.16049562447574</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767877</v>
+        <v>9.319542882767955</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608782</v>
+        <v>2.788094384608805</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890132</v>
+        <v>0.6050197731890185</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345164</v>
+        <v>0.009875186722345249</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486826</v>
+        <v>0.1258411772486837</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811015</v>
+        <v>1.118842466811024</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078564</v>
+        <v>3.784387403078596</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481857</v>
+        <v>8.896971231481933</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489239</v>
+        <v>14.62045677489252</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477232</v>
+        <v>18.70915102477248</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908212</v>
+        <v>19.72617653908229</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115523</v>
+        <v>19.25713215115539</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875016</v>
+        <v>17.78707839875031</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287702</v>
+        <v>15.21991838287715</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852378</v>
+        <v>10.53748257852386</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381671</v>
+        <v>5.658276933381719</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233858</v>
+        <v>2.193068516233877</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625526</v>
+        <v>0.5376850300625573</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564512</v>
+        <v>0.00686406421356457</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33977,13 +33977,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019273</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573247</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36367,16 +36367,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>679.8012701314407</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>526.06871809517</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597689</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>533.9947035090598</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>954.8518371008041</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>265.4737957561986</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>939.1244131184363</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597722</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37069,16 +37069,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>624.1930720027913</v>
       </c>
       <c r="L32" t="n">
-        <v>643.4784210206367</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
@@ -37087,7 +37087,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861334</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923308</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
